--- a/assignment_data.xlsx
+++ b/assignment_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\next-best-position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E434AB52-3EE6-4322-9CEF-E1EA56ABC5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13DD4DD-4479-4D3C-AE5B-928D978AB424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1B66F183-0BCD-4F97-8FF8-4BD92C1308AE}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
     <sheet name="open positions" sheetId="2" r:id="rId2"/>
+    <sheet name="formulas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>employee_id</t>
   </si>
@@ -76,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,16 +394,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2614F31-0953-43BE-ABDC-2F399F76A8BE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,12 +419,1610 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <f ca="1">TODAY()+RANDBETWEEN(1,180)</f>
+        <v>45562</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(1,2000)</f>
+        <v>1120</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B66" ca="1" si="0">TODAY()+RANDBETWEEN(1,180)</f>
+        <v>45569</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(1,2000)</f>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45569</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45464</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45492</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45560</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45525</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45473</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45522</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45494</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45461</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45421</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45478</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45573</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45550</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45526</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45433</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45533</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45518</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45421</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45577</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45417</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45425</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45467</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45416</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45476</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45557</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45455</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45502</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45488</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45568</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45414</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45534</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45424</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45416</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45484</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45468</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45415</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45428</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45479</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45531</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45509</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45574</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45419</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45429</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45407</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45434</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45512</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45559</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45504</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45446</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45490</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45470</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45531</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45483</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45419</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45556</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45445</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45413</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45553</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45454</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45555</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45499</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" ref="B67:B130" ca="1" si="3">TODAY()+RANDBETWEEN(1,180)</f>
+        <v>45522</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" ca="1" si="4">RANDBETWEEN(1,2000)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="5">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45504</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="4"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45562</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="4"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45526</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="4"/>
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45560</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="4"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45533</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="4"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45473</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="4"/>
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45519</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45416</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="4"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="4"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45570</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="4"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45540</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="4"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45440</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="4"/>
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45540</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45512</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="4"/>
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45487</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="4"/>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45541</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="4"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45526</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="4"/>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45411</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="4"/>
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45552</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="4"/>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45454</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="4"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45457</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45514</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="4"/>
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45568</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="4"/>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45507</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="4"/>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45556</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="4"/>
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45493</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="4"/>
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45454</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="4"/>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45445</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="4"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45520</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="4"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45467</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="4"/>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45474</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="4"/>
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45532</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="4"/>
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45496</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="4"/>
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45527</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="4"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -433,13 +2031,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359C2FAD-099F-46C8-A0D9-E07FF297F409}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -449,6 +2050,1086 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f ca="1">TODAY()+RANDBETWEEN(14,365)</f>
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B66" ca="1" si="0">TODAY()+RANDBETWEEN(14,365)</f>
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" ref="B67:B101" ca="1" si="2">TODAY()+RANDBETWEEN(14,365)</f>
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="3">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>45671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B4741E-6330-4828-AC4B-75AE610DD2DF}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f ca="1">TODAY()+RANDBETWEEN(1,180)</f>
+        <v>45559</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(1,2000)</f>
+        <v>1971</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">TODAY()+RANDBETWEEN(14,365)</f>
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3" ca="1" si="0">TODAY()+RANDBETWEEN(14,365)</f>
+        <v>45712</v>
+      </c>
+      <c r="C3">
+        <f ca="1">RANDBETWEEN(1,2000)</f>
+        <v>181</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">TODAY()+RANDBETWEEN(14,365)</f>
+        <v>45417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment_data.xlsx
+++ b/assignment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\next-best-position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13DD4DD-4479-4D3C-AE5B-928D978AB424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB7911-7719-4454-894F-B7531E15ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1B66F183-0BCD-4F97-8FF8-4BD92C1308AE}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="open positions" sheetId="2" r:id="rId2"/>
     <sheet name="formulas" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">employees!$A$1:$C$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>employee_id</t>
   </si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>points</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2614F31-0953-43BE-ABDC-2F399F76A8BE}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -417,1401 +425,1102 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">TODAY()+RANDBETWEEN(1,180)</f>
-        <v>45562</v>
+        <v>45419</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(1,2000)</f>
-        <v>1120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" ca="1" si="0">TODAY()+RANDBETWEEN(1,180)</f>
-        <v>45569</v>
+        <v>45533</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(1,2000)</f>
-        <v>627</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="2">A3+1</f>
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45569</v>
+        <v>45533</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1570</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45492</v>
+        <v>45570</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45560</v>
+        <v>45483</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>722</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45525</v>
+        <v>45544</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>392</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45473</v>
+        <v>45498</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>794</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45522</v>
+        <v>45508</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45559</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1644</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45494</v>
+        <v>45565</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1605</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45461</v>
+        <v>45451</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45421</v>
+        <v>45475</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45478</v>
+        <v>45450</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45524</v>
+        <v>45534</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1538</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45573</v>
+        <v>45496</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45550</v>
+        <v>45444</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>702</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45526</v>
+        <v>45449</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45433</v>
+        <v>45430</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1149</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45533</v>
+        <v>45465</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45518</v>
+        <v>45414</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>577</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45421</v>
+        <v>45405</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1132</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45577</v>
+        <v>45488</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>392</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45417</v>
+        <v>45437</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45425</v>
+        <v>45553</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>716</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45467</v>
+        <v>45405</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>151</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45416</v>
+        <v>45477</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45476</v>
+        <v>45416</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1345</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45557</v>
+        <v>45496</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>1021</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45455</v>
+        <v>45549</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45502</v>
+        <v>45543</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>814</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45488</v>
+        <v>45406</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1920</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45568</v>
+        <v>45565</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>1918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45414</v>
+        <v>45582</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45534</v>
+        <v>45472</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>429</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45424</v>
+        <v>45533</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45416</v>
+        <v>45420</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1800</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45467</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1740</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45468</v>
+        <v>45509</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45415</v>
+        <v>45467</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>378</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45428</v>
+        <v>45582</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>860</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45479</v>
+        <v>45426</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>870</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45531</v>
+        <v>45458</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>1349</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45509</v>
+        <v>45434</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1423</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45574</v>
+        <v>45450</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45419</v>
+        <v>45405</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>1903</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45429</v>
+        <v>45424</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1403</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45407</v>
+        <v>45458</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45434</v>
+        <v>45439</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="1"/>
-        <v>617</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45512</v>
+        <v>45446</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>1321</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45559</v>
+        <v>45405</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="1"/>
-        <v>1377</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45504</v>
+        <v>45500</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="1"/>
-        <v>1715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45446</v>
+        <v>45482</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="1"/>
-        <v>1808</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45556</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="1"/>
-        <v>465</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45470</v>
+        <v>45429</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="1"/>
-        <v>1684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45531</v>
+        <v>45418</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="1"/>
-        <v>1225</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45536</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="1"/>
-        <v>1013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45419</v>
+        <v>45446</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1298</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45556</v>
+        <v>45427</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45445</v>
+        <v>45436</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45413</v>
+        <v>45460</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="1"/>
-        <v>1639</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45553</v>
+        <v>45418</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="1"/>
-        <v>541</v>
+        <v>999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45454</v>
+        <v>45423</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>970</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45555</v>
+        <v>45455</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45499</v>
+        <v>45424</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="1"/>
-        <v>727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B130" ca="1" si="3">TODAY()+RANDBETWEEN(1,180)</f>
-        <v>45522</v>
+        <v>45406</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" ca="1" si="4">RANDBETWEEN(1,2000)</f>
-        <v>147</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="5">A67+1</f>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45504</v>
+        <v>45508</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="4"/>
-        <v>803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="5"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45562</v>
+        <v>45531</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="4"/>
-        <v>149</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="5"/>
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45526</v>
+        <v>45578</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="4"/>
-        <v>1395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45560</v>
+        <v>45431</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="4"/>
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="5"/>
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45533</v>
+        <v>45526</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="4"/>
-        <v>711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="5"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45473</v>
+        <v>45451</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="4"/>
-        <v>1699</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="5"/>
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45519</v>
+        <v>45556</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1434</v>
+        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="5"/>
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45416</v>
+        <v>45454</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="4"/>
-        <v>1025</v>
+        <v>999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="5"/>
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45524</v>
+        <v>45573</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="4"/>
-        <v>434</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="5"/>
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45570</v>
+        <v>45473</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="4"/>
-        <v>811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="5"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45540</v>
+        <v>45448</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="4"/>
-        <v>1081</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="5"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45440</v>
+        <v>45483</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="4"/>
-        <v>1971</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="5"/>
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45512</v>
+        <v>45533</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="4"/>
-        <v>1543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="5"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45487</v>
+        <v>45465</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="4"/>
-        <v>1077</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45541</v>
+        <v>45535</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="4"/>
-        <v>749</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="5"/>
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45526</v>
+        <v>45520</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="4"/>
-        <v>1226</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="5"/>
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45411</v>
+        <v>45504</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="4"/>
-        <v>1513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="4"/>
-        <v>1107</v>
+        <v>999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45454</v>
+        <v>45487</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="4"/>
-        <v>593</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45457</v>
+        <v>45546</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="4"/>
-        <v>1961</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="5"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45514</v>
+        <v>45578</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="4"/>
-        <v>1393</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="5"/>
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45568</v>
+        <v>45516</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="4"/>
-        <v>1304</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45507</v>
+        <v>45493</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="4"/>
-        <v>1785</v>
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="5"/>
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45556</v>
+        <v>45405</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="4"/>
-        <v>1184</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45493</v>
+        <v>45433</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="4"/>
-        <v>1233</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="5"/>
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45454</v>
+        <v>45504</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="4"/>
-        <v>1160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="5"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45445</v>
+        <v>45485</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="4"/>
-        <v>599</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45520</v>
+        <v>45481</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="4"/>
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="5"/>
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45467</v>
+        <v>45455</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="4"/>
-        <v>1743</v>
+        <v>999</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45474</v>
+        <v>45490</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="4"/>
-        <v>1623</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="5"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45532</v>
+        <v>45498</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="4"/>
-        <v>1653</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45496</v>
+        <v>45515</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="4"/>
-        <v>1685</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B101" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>45527</v>
+        <v>45489</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="4"/>
-        <v>386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,6 +1734,7 @@
       <c r="B171" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C101" xr:uid="{B2614F31-0953-43BE-ABDC-2F399F76A8BE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2034,7 +1744,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,998 +1765,799 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">TODAY()+RANDBETWEEN(14,365)</f>
-        <v>45508</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" ca="1" si="0">TODAY()+RANDBETWEEN(14,365)</f>
-        <v>45663</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45733</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45563</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45582</v>
+        <v>45493</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45446</v>
+        <v>45642</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45464</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45619</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45513</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45619</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45710</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45659</v>
+        <v>45741</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45572</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45572</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45438</v>
+        <v>45619</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45553</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45457</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45501</v>
+        <v>45426</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45600</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45418</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45545</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45670</v>
+        <v>45471</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45559</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45472</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45733</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45736</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45583</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45739</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45626</v>
+        <v>45633</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45476</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45743</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45436</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45725</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45667</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45698</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45702</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45503</v>
+        <v>45434</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45516</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45515</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45579</v>
+        <v>45611</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45647</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45751</v>
+        <v>45465</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45420</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45729</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45435</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45606</v>
+        <v>45454</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45691</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45712</v>
+        <v>45566</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45467</v>
+        <v>45696</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45573</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45653</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45528</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45666</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45677</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45601</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45494</v>
+        <v>45452</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45462</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45602</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45469</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45517</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45519</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45528</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B101" ca="1" si="2">TODAY()+RANDBETWEEN(14,365)</f>
-        <v>45457</v>
+        <v>45664</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="3">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45574</v>
+        <v>45431</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45761</v>
+        <v>45638</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45759</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45551</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45435</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45693</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45661</v>
+        <v>45440</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45447</v>
+        <v>45647</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45660</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45582</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45671</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45661</v>
+        <v>45592</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45627</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45730</v>
+        <v>45476</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45423</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45447</v>
+        <v>45523</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45722</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45488</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45747</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45761</v>
+        <v>45438</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45641</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45432</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45543</v>
+        <v>45646</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45536</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45719</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45561</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45495</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45671</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45507</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45561</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45441</v>
+        <v>45448</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45442</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45733</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45671</v>
+        <v>45654</v>
       </c>
     </row>
   </sheetData>
@@ -3058,9 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B4741E-6330-4828-AC4B-75AE610DD2DF}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3094,18 +2603,17 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">TODAY()+RANDBETWEEN(1,180)</f>
-        <v>45559</v>
-      </c>
-      <c r="C2">
-        <f ca="1">RANDBETWEEN(1,2000)</f>
-        <v>1971</v>
+        <v>45480</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">TODAY()+RANDBETWEEN(14,365)</f>
-        <v>45510</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,11 +2623,10 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3" ca="1" si="0">TODAY()+RANDBETWEEN(14,365)</f>
-        <v>45712</v>
-      </c>
-      <c r="C3">
-        <f ca="1">RANDBETWEEN(1,2000)</f>
-        <v>181</v>
+        <v>45702</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
@@ -3127,7 +2634,7 @@
       </c>
       <c r="F3" s="1">
         <f ca="1">TODAY()+RANDBETWEEN(14,365)</f>
-        <v>45417</v>
+        <v>45494</v>
       </c>
     </row>
   </sheetData>
